--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/05,25/26,05,25 Ост СЫР филиалы/заказ СЫРЫ от 28,05,25 на 02,06,25.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/05,25/26,05,25 Ост СЫР филиалы/заказ СЫРЫ от 28,05,25 на 02,06,25.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\26,05,25 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\05,25\26,05,25 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90294C8-FD7B-4024-8D3B-E4BEA3763481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07512EEE-4C37-4F8B-A487-431047BFA0EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Мелитополь" sheetId="1" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -1201,7 +1201,7 @@
         <v>3.5</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" ref="H15:H16" si="1">E16</f>
+        <f t="shared" ref="H16" si="1">E16</f>
         <v>0</v>
       </c>
       <c r="I16" s="9"/>
@@ -1510,14 +1510,14 @@
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="9">
-        <f>D28/C28</f>
+        <f t="shared" ref="F28:F34" si="2">D28/C28</f>
         <v>7</v>
       </c>
       <c r="G28" s="2">
         <v>0.1</v>
       </c>
       <c r="H28" s="9">
-        <f>G28*D28</f>
+        <f t="shared" ref="H28:H34" si="3">G28*D28</f>
         <v>4.2</v>
       </c>
       <c r="I28" s="9"/>
@@ -1537,14 +1537,14 @@
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="9">
-        <f>D29/C29</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G29" s="2">
         <v>0.1</v>
       </c>
       <c r="H29" s="9">
-        <f>G29*D29</f>
+        <f t="shared" si="3"/>
         <v>7.2</v>
       </c>
       <c r="I29" s="9"/>
@@ -1562,14 +1562,14 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="9">
-        <f>D30/C30</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30" s="2">
         <v>0.1</v>
       </c>
       <c r="H30" s="9">
-        <f>G30*D30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I30" s="9"/>
@@ -1589,14 +1589,14 @@
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="9">
-        <f>D31/C31</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G31" s="2">
         <v>0.1</v>
       </c>
       <c r="H31" s="9">
-        <f>G31*D31</f>
+        <f t="shared" si="3"/>
         <v>6.4</v>
       </c>
       <c r="I31" s="9"/>
@@ -1614,14 +1614,14 @@
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="9">
-        <f>D32/C32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H32" s="9">
-        <f>G32*D32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I32" s="9"/>
@@ -1641,14 +1641,14 @@
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="9">
-        <f>D33/C33</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G33" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H33" s="9">
-        <f>G33*D33</f>
+        <f t="shared" si="3"/>
         <v>29.120000000000005</v>
       </c>
       <c r="I33" s="9"/>
@@ -1668,14 +1668,14 @@
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="9">
-        <f>D34/C34</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="G34" s="2">
         <v>0.18</v>
       </c>
       <c r="H34" s="9">
-        <f>G34*D34</f>
+        <f t="shared" si="3"/>
         <v>18.36</v>
       </c>
       <c r="I34" s="9"/>
@@ -1700,7 +1700,7 @@
         <v>2.5</v>
       </c>
       <c r="H35" s="9">
-        <f t="shared" ref="H35:H37" si="2">E35</f>
+        <f t="shared" ref="H35:H37" si="4">E35</f>
         <v>0</v>
       </c>
       <c r="I35" s="9" t="s">
@@ -1727,7 +1727,7 @@
         <v>1.3</v>
       </c>
       <c r="H36" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I36" s="9" t="s">
@@ -1756,7 +1756,7 @@
         <v>3.2</v>
       </c>
       <c r="H37" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>49.5</v>
       </c>
       <c r="I37" s="9" t="s">
@@ -1776,14 +1776,14 @@
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="9">
-        <f>D38/C38</f>
+        <f t="shared" ref="F38:F47" si="5">D38/C38</f>
         <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>0.4</v>
       </c>
       <c r="H38" s="9">
-        <f>G38*D38</f>
+        <f t="shared" ref="H38:H43" si="6">G38*D38</f>
         <v>0</v>
       </c>
       <c r="I38" s="9"/>
@@ -1801,14 +1801,14 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="9">
-        <f>D39/C39</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.4</v>
       </c>
       <c r="H39" s="9">
-        <f>G39*D39</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I39" s="9"/>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="9">
-        <f>D40/C40</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="9">
-        <f>G40*D40</f>
+        <f t="shared" si="6"/>
         <v>23.04</v>
       </c>
       <c r="I40" s="9"/>
@@ -1855,14 +1855,14 @@
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="9">
-        <f>D41/C41</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G41" s="2">
         <v>0.18</v>
       </c>
       <c r="H41" s="9">
-        <f>G41*D41</f>
+        <f t="shared" si="6"/>
         <v>5.76</v>
       </c>
       <c r="I41" s="9"/>
@@ -1882,14 +1882,14 @@
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="9">
-        <f>D42/C42</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G42" s="2">
         <v>0.18</v>
       </c>
       <c r="H42" s="9">
-        <f>G42*D42</f>
+        <f t="shared" si="6"/>
         <v>8.64</v>
       </c>
       <c r="I42" s="9"/>
@@ -1909,14 +1909,14 @@
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="9">
-        <f>D43/C43</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G43" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H43" s="9">
-        <f>G43*D43</f>
+        <f t="shared" si="6"/>
         <v>13.440000000000001</v>
       </c>
       <c r="I43" s="9"/>
@@ -1934,7 +1934,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="9">
-        <f>D44/C44</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
@@ -1959,7 +1959,7 @@
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="9">
-        <f>D45/C45</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G45" s="2">
@@ -1984,7 +1984,7 @@
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="9">
-        <f>D46/C46</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G46" s="2">
@@ -2009,7 +2009,7 @@
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="9">
-        <f>D47/C47</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G47" s="2">
@@ -2059,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8503D96-87CB-405B-9717-B3A25D265884}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -2780,14 +2780,14 @@
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="9">
-        <f>D28/C28</f>
+        <f t="shared" ref="F28:F34" si="2">D28/C28</f>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.1</v>
       </c>
       <c r="H28" s="9">
-        <f>G28*D28</f>
+        <f t="shared" ref="H28:H34" si="3">G28*D28</f>
         <v>0</v>
       </c>
       <c r="I28" s="9"/>
@@ -2805,14 +2805,14 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="9">
-        <f>D29/C29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
         <v>0.1</v>
       </c>
       <c r="H29" s="9">
-        <f>G29*D29</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I29" s="9"/>
@@ -2830,14 +2830,14 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="9">
-        <f>D30/C30</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30" s="2">
         <v>0.1</v>
       </c>
       <c r="H30" s="9">
-        <f>G30*D30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I30" s="9"/>
@@ -2855,14 +2855,14 @@
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="9">
-        <f>D31/C31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G31" s="2">
         <v>0.1</v>
       </c>
       <c r="H31" s="9">
-        <f>G31*D31</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I31" s="9"/>
@@ -2880,14 +2880,14 @@
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="9">
-        <f>D32/C32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H32" s="9">
-        <f>G32*D32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I32" s="9"/>
@@ -2905,14 +2905,14 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="9">
-        <f>D33/C33</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H33" s="9">
-        <f>G33*D33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I33" s="9"/>
@@ -2930,14 +2930,14 @@
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="9">
-        <f>D34/C34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.18</v>
       </c>
       <c r="H34" s="9">
-        <f>G34*D34</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I34" s="9"/>
@@ -2962,7 +2962,7 @@
         <v>2.5</v>
       </c>
       <c r="H35" s="9">
-        <f t="shared" ref="H35:H37" si="2">E35</f>
+        <f t="shared" ref="H35:H37" si="4">E35</f>
         <v>0</v>
       </c>
       <c r="I35" s="9" t="s">
@@ -2989,7 +2989,7 @@
         <v>1.3</v>
       </c>
       <c r="H36" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I36" s="9" t="s">
@@ -3018,7 +3018,7 @@
         <v>3.2</v>
       </c>
       <c r="H37" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>115.5</v>
       </c>
       <c r="I37" s="9" t="s">
@@ -3038,14 +3038,14 @@
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="9">
-        <f>D38/C38</f>
+        <f t="shared" ref="F38:F47" si="5">D38/C38</f>
         <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>0.4</v>
       </c>
       <c r="H38" s="9">
-        <f>G38*D38</f>
+        <f t="shared" ref="H38:H43" si="6">G38*D38</f>
         <v>0</v>
       </c>
       <c r="I38" s="9"/>
@@ -3063,14 +3063,14 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="9">
-        <f>D39/C39</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.4</v>
       </c>
       <c r="H39" s="9">
-        <f>G39*D39</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I39" s="9"/>
@@ -3088,14 +3088,14 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="9">
-        <f>D40/C40</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="9">
-        <f>G40*D40</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I40" s="9"/>
@@ -3113,14 +3113,14 @@
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="9">
-        <f>D41/C41</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.18</v>
       </c>
       <c r="H41" s="9">
-        <f>G41*D41</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I41" s="9"/>
@@ -3138,14 +3138,14 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="9">
-        <f>D42/C42</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.18</v>
       </c>
       <c r="H42" s="9">
-        <f>G42*D42</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I42" s="9"/>
@@ -3163,14 +3163,14 @@
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="9">
-        <f>D43/C43</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H43" s="9">
-        <f>G43*D43</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I43" s="9"/>
@@ -3188,7 +3188,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="9">
-        <f>D44/C44</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
@@ -3213,7 +3213,7 @@
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="9">
-        <f>D45/C45</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G45" s="2">
@@ -3238,7 +3238,7 @@
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="9">
-        <f>D46/C46</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G46" s="2">
@@ -3263,7 +3263,7 @@
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="9">
-        <f>D47/C47</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G47" s="2">
@@ -3301,8 +3301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72ECD62-84E8-442D-8B58-81E0F02517D0}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -4018,14 +4018,14 @@
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="9">
-        <f>D28/C28</f>
+        <f t="shared" ref="F28:F34" si="2">D28/C28</f>
         <v>12</v>
       </c>
       <c r="G28" s="2">
         <v>0.1</v>
       </c>
       <c r="H28" s="9">
-        <f>G28*D28</f>
+        <f t="shared" ref="H28:H34" si="3">G28*D28</f>
         <v>7.2</v>
       </c>
       <c r="I28" s="9"/>
@@ -4045,14 +4045,14 @@
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="9">
-        <f>D29/C29</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G29" s="2">
         <v>0.1</v>
       </c>
       <c r="H29" s="9">
-        <f>G29*D29</f>
+        <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
       <c r="I29" s="9"/>
@@ -4072,14 +4072,14 @@
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="9">
-        <f>D30/C30</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G30" s="2">
         <v>0.1</v>
       </c>
       <c r="H30" s="9">
-        <f>G30*D30</f>
+        <f t="shared" si="3"/>
         <v>6.4</v>
       </c>
       <c r="I30" s="9"/>
@@ -4099,14 +4099,14 @@
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="9">
-        <f>D31/C31</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G31" s="2">
         <v>0.1</v>
       </c>
       <c r="H31" s="9">
-        <f>G31*D31</f>
+        <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
       <c r="I31" s="9"/>
@@ -4124,14 +4124,14 @@
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="9">
-        <f>D32/C32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H32" s="9">
-        <f>G32*D32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I32" s="9"/>
@@ -4151,14 +4151,14 @@
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="9">
-        <f>D33/C33</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G33" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H33" s="9">
-        <f>G33*D33</f>
+        <f t="shared" si="3"/>
         <v>2.2400000000000002</v>
       </c>
       <c r="I33" s="9"/>
@@ -4176,14 +4176,14 @@
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="9">
-        <f>D34/C34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.18</v>
       </c>
       <c r="H34" s="9">
-        <f>G34*D34</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I34" s="9"/>
@@ -4208,7 +4208,7 @@
         <v>2.5</v>
       </c>
       <c r="H35" s="9">
-        <f t="shared" ref="H35:H37" si="2">E35</f>
+        <f t="shared" ref="H35:H37" si="4">E35</f>
         <v>0</v>
       </c>
       <c r="I35" s="9" t="s">
@@ -4235,7 +4235,7 @@
         <v>1.3</v>
       </c>
       <c r="H36" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I36" s="9" t="s">
@@ -4262,7 +4262,7 @@
         <v>3.2</v>
       </c>
       <c r="H37" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I37" s="9" t="s">
@@ -4282,14 +4282,14 @@
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="9">
-        <f>D38/C38</f>
+        <f t="shared" ref="F38:F47" si="5">D38/C38</f>
         <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>0.4</v>
       </c>
       <c r="H38" s="9">
-        <f>G38*D38</f>
+        <f t="shared" ref="H38:H43" si="6">G38*D38</f>
         <v>0</v>
       </c>
       <c r="I38" s="9"/>
@@ -4307,14 +4307,14 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="9">
-        <f>D39/C39</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.4</v>
       </c>
       <c r="H39" s="9">
-        <f>G39*D39</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I39" s="9"/>
@@ -4332,14 +4332,14 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="9">
-        <f>D40/C40</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="9">
-        <f>G40*D40</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I40" s="9"/>
@@ -4357,14 +4357,14 @@
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="9">
-        <f>D41/C41</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.18</v>
       </c>
       <c r="H41" s="9">
-        <f>G41*D41</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I41" s="9"/>
@@ -4384,14 +4384,14 @@
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="9">
-        <f>D42/C42</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G42" s="2">
         <v>0.18</v>
       </c>
       <c r="H42" s="9">
-        <f>G42*D42</f>
+        <f t="shared" si="6"/>
         <v>2.88</v>
       </c>
       <c r="I42" s="9"/>
@@ -4409,14 +4409,14 @@
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="9">
-        <f>D43/C43</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H43" s="9">
-        <f>G43*D43</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I43" s="9"/>
@@ -4434,7 +4434,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="9">
-        <f>D44/C44</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
@@ -4459,7 +4459,7 @@
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="9">
-        <f>D45/C45</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G45" s="2">
@@ -4484,7 +4484,7 @@
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="9">
-        <f>D46/C46</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G46" s="2">
@@ -4509,7 +4509,7 @@
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="9">
-        <f>D47/C47</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G47" s="2">
